--- a/DBSQL/Productos no locales.xlsx
+++ b/DBSQL/Productos no locales.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Programacion de app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\leyen\Documents\GitHub\API-Creator-Helio\DBSQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49F4D0A8-A4A0-4DA8-827D-40DB76A960A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFC4E76-806F-42F3-9479-9F27032187B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DD91ADDA-8B58-4A7E-8606-639059A698ED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{DD91ADDA-8B58-4A7E-8606-639059A698ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -51,12 +51,6 @@
     <t>urlreference</t>
   </si>
   <si>
-    <t>Pulidor Kenda Unicus.</t>
-  </si>
-  <si>
-    <t>Sistema de pulido diamantado en 1 solo paso para restauraciones con composite y cerámica. Un solo pulidor consigue un acabado y pulido perfectos de todas las restauraciones de composite y de cerámica con una buena relación coste-eficiencia.</t>
-  </si>
-  <si>
     <t>Kenda</t>
   </si>
   <si>
@@ -66,27 +60,15 @@
     <t>empresa</t>
   </si>
   <si>
-    <t>Caja de esterilización Kenda Practicus</t>
-  </si>
-  <si>
     <t>Kenda dental polishers</t>
   </si>
   <si>
-    <t>La caja de esterilización Kenda Practicus está concebida para 6 pulidores contra-ángulo y 12 instrumentos FG diamantados. Para organizar y preparar su trabajo.</t>
-  </si>
-  <si>
     <t>http://www.kenda-dental.com/DesktopModules/ToSic_KendaProductCatalog/Thumbnail.aspx?Image=%2fKenda%2fProductImages%2fPracticus%2f1.jpg&amp;Width=430&amp;Height=280</t>
   </si>
   <si>
     <t>precio</t>
   </si>
   <si>
-    <t>Cemento de Obturación Provisional (Jeringas 3 x 3 gr)</t>
-  </si>
-  <si>
-    <t>Cemento de obturación provisional para restauraciones temporales: Fotopolimerizable.</t>
-  </si>
-  <si>
     <t>Medicaline</t>
   </si>
   <si>
@@ -96,24 +78,6 @@
     <t>obturacion-provisional.jpg (600×473) (dentaltix.com)</t>
   </si>
   <si>
-    <t>Lámpara de Fotocurado Inalámbrica (Kit)</t>
-  </si>
-  <si>
-    <r>
-      <t>Lámpara inalámbrica LED</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> para fotocurado. Cuenta con tres modos de potencia: Estándar, Alta Potencia y Potencia Extra. Diseño ligero, delgado y ergonómico para facilitar el acceso a todas las zonas de la boca.</t>
-    </r>
-  </si>
-  <si>
     <t>Ultradent</t>
   </si>
   <si>
@@ -135,21 +99,12 @@
     <t>Dentalyss</t>
   </si>
   <si>
-    <t>Dentífrico Protect sensitive Dentalyss</t>
-  </si>
-  <si>
-    <t>Dentífrico Protect Encias Gengive Dentalyss 75 Ml.</t>
-  </si>
-  <si>
     <t>Lola market</t>
   </si>
   <si>
     <t>https://d2ohdpvxj0yo9f.cloudfront.net/products/de/dentfrico-protect-gencives-dentalyss-75ml-de-carrefour-es-1621989234_m.jpg</t>
   </si>
   <si>
-    <t>Ayuda a llegar fácilmente a los dientes con el diseño de ángulo recto.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hilo dental Plackers </t>
   </si>
   <si>
@@ -165,9 +120,6 @@
     <t>Enjuague Bucal KIN Gingival Complex</t>
   </si>
   <si>
-    <t>Enjuague bucal en frasco de 250ml Clorhexidina 0.12% + Alpantha. Refuerza y tonifica las encías delicadas</t>
-  </si>
-  <si>
     <t>KIN</t>
   </si>
   <si>
@@ -183,10 +135,46 @@
     <t xml:space="preserve">Enjuague Bucal ODDENT </t>
   </si>
   <si>
-    <t>ODDENT ácido hialurónico es un enjuague bucal de uso diario adecuado para el control de la placa bacteriana y la prevención de la caries. Contiene lactato de zinc y cloruro de cetilpiridinio, dos agentes que actúan contra la placa bacteriana. Esta acción se ve reforzada por el fluoruro potásico, que ayuda también a prevenir la caries.</t>
-  </si>
-  <si>
     <t>Amazon</t>
+  </si>
+  <si>
+    <t>Pulidor Kenda Unicus</t>
+  </si>
+  <si>
+    <t>Lampara de Fotocurado Inalambrica (Kit)</t>
+  </si>
+  <si>
+    <t>Caja de esterilizacion Kenda Practicus</t>
+  </si>
+  <si>
+    <t>Cemento de obturacion provisional para restauraciones temporales: Fotopolimerizable.</t>
+  </si>
+  <si>
+    <t>Sistema de pulido diamantado en 1 solo paso para restauraciones con composite y ceramica. Un solo pulidor consigue un acabado y pulido perfectos de todas las restauraciones de composite y de ceramica con una buena relacion coste-eficiencia.</t>
+  </si>
+  <si>
+    <t>La caja de esterilizacion Kenda Practicus esta concebida para 6 pulidores contra-angulo y 12 instrumentos FG diamantados. Para organizar y preparar su trabajo.</t>
+  </si>
+  <si>
+    <t>Lampara inalambrica LED para fotocurado. Cuenta con tres modos de potencia: Estandar, Alta Potencia y Potencia Extra. Diseño ligero, delgado y ergonomico para facilitar el acceso a todas las zonas de la boca.</t>
+  </si>
+  <si>
+    <t>Ayuda a llegar facilmente a los dientes con el diseño de angulo recto.</t>
+  </si>
+  <si>
+    <t>Dentifrico Protect sensitive Dentalyss</t>
+  </si>
+  <si>
+    <t>Dentifrico Protect Encias Gengive Dentalyss 75 Ml.</t>
+  </si>
+  <si>
+    <t>Enjuague bucal en frasco de 250ml Clorhexidina 0.12% + Alpantha. Refuerza y tonifica las encias delicadas.</t>
+  </si>
+  <si>
+    <t>ODDENT acido hialuronico es un enjuague bucal de uso diario adecuado para el control de la placa bacteriana y la prevencion de la caries. Contiene lactato de zinc y cloruro de cetilpiridinio, dos agentes que actuan contra la placa bacteriana. Esta accion se ve reforzada por el fluoruro potasico, que ayuda tambien a prevenir la caries.</t>
+  </si>
+  <si>
+    <t>Cemento de Obturacion Provisional (Jeringas 3x3gr)</t>
   </si>
 </sst>
 </file>
@@ -194,9 +182,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,18 +199,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.6"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="2">
@@ -246,16 +222,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -272,7 +245,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -568,13 +541,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C38663-6B95-4218-87B1-456EE07594A2}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.88671875" customWidth="1"/>
     <col min="2" max="2" width="58.77734375" customWidth="1"/>
@@ -583,7 +556,7 @@
     <col min="7" max="7" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -600,199 +573,199 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C2">
         <v>360</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2">
         <v>53.5</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C3">
         <v>400</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F3" s="2">
         <v>169.9</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>410</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F4" s="2">
         <v>45.07</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>312</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2">
         <v>966.79</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>330</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2">
         <v>7.17</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C7">
         <v>400</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F7" s="2">
         <v>0.96</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>470</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2">
         <v>23.95</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C9">
         <v>310</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2">
         <v>12.56</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>45</v>
@@ -801,20 +774,71 @@
         <v>446</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2">
         <v>11.94</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="B14" s="3"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <f>LEN(A2)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <f t="shared" ref="B13:B21" si="0">LEN(A3)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <f>LEN(A8)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/DBSQL/Productos no locales.xlsx
+++ b/DBSQL/Productos no locales.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\leyen\Documents\GitHub\API-Creator-Helio\DBSQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFC4E76-806F-42F3-9479-9F27032187B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{045FA589-DC8A-47EC-9AA6-984A7681578C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{DD91ADDA-8B58-4A7E-8606-639059A698ED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DD91ADDA-8B58-4A7E-8606-639059A698ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
   <si>
     <t>nombre producto</t>
   </si>
@@ -175,14 +175,93 @@
   </si>
   <si>
     <t>Cemento de Obturacion Provisional (Jeringas 3x3gr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espátula para cemento </t>
+  </si>
+  <si>
+    <t>GC FUJI ESPATULA PARA CEMENTO</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>Odotostore</t>
+  </si>
+  <si>
+    <t>https://img.medicalexpo.es/images_me/photo-mg/109838-9754767.webp</t>
+  </si>
+  <si>
+    <t>Herramientas Preparadas </t>
+  </si>
+  <si>
+    <t>Kit De 6 Herramientas Preparadas Para Dentista Envio Gratis</t>
+  </si>
+  <si>
+    <t>Mercado Libre</t>
+  </si>
+  <si>
+    <t>D_NQ_NP_707377-MLM45742669951_042021-O.webp (362×500) (mlstatic.com)</t>
+  </si>
+  <si>
+    <t>Cepillo De Dientes</t>
+  </si>
+  <si>
+    <t>Cepillo De Dientes Bambu Biodegradable Ecologico Adulto</t>
+  </si>
+  <si>
+    <t>Familia Ecologica</t>
+  </si>
+  <si>
+    <t>D_NQ_NP_696629-MLM46898738296_072021-O.webp (500×499) (mlstatic.com)</t>
+  </si>
+  <si>
+    <t>Clips De Cadena</t>
+  </si>
+  <si>
+    <t>6 Clips De Cadena Duraderos De Silicona Flexible Dentista Sc</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>D_NQ_NP_828420-CBT45468688047_042021-O.webp (482×500) (mlstatic.com)</t>
+  </si>
+  <si>
+    <t>Espejo Con Manija</t>
+  </si>
+  <si>
+    <t>Dental Espejo Con Manija Excelente Calidad Quirúrgica / estudiantes dentistas / Dentista</t>
+  </si>
+  <si>
+    <t>Beauty Track Ltd</t>
+  </si>
+  <si>
+    <t>Lámpara De Fotocurado</t>
+  </si>
+  <si>
+    <t>USA Dentista Dental LED Lámpara De Fotocurado inalámbrico inalámbrico cura de resina 10 W 2000 mV</t>
+  </si>
+  <si>
+    <t>DTE</t>
+  </si>
+  <si>
+    <t>Tiendental</t>
+  </si>
+  <si>
+    <t>Lampara-de-fotocurado-LED-C-de-la-marca-DTE.-Deposito-Dental-Dentalmex.jpg (400×400)</t>
+  </si>
+  <si>
+    <t>s-l500.jpg (500×375) (ebayimg.com)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -222,13 +301,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -245,7 +325,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -541,13 +621,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C38663-6B95-4218-87B1-456EE07594A2}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.88671875" customWidth="1"/>
     <col min="2" max="2" width="58.77734375" customWidth="1"/>
@@ -786,58 +866,142 @@
         <v>33</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11">
+        <v>400</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="3">
+        <v>180</v>
+      </c>
+      <c r="G11" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <f>LEN(A2)</f>
-        <v>20</v>
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12">
+        <v>340</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="2">
+        <v>122.82</v>
+      </c>
+      <c r="G12" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <f t="shared" ref="B13:B21" si="0">LEN(A3)</f>
-        <v>38</v>
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13">
+        <v>475</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="2">
+        <v>10.89</v>
+      </c>
+      <c r="G13" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>50</v>
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14">
+        <v>322</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="2">
+        <v>591.41</v>
+      </c>
+      <c r="G14" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>39</v>
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15">
+        <v>306</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18">
-        <f>LEN(A8)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>22</v>
+      <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16">
+        <v>432</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="2">
+        <v>22.79</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -851,7 +1015,14 @@
     <hyperlink ref="E8" r:id="rId7" display="https://images-na.ssl-images-amazon.com/images/I/4109DMW%2B-rL.jpg" xr:uid="{6D93F633-1FE6-49FC-A35D-E68676C49C6C}"/>
     <hyperlink ref="E9" r:id="rId8" display="https://dentalkin.com/wp-content/uploads/2018/06/Producto_KIN_GINGIVAL_COMPLEX_ENJUAGUE_KINGINGIVALCOMPLEX_ENJUAGUE-768x768.png" xr:uid="{D9DB5C59-416A-446F-A212-6704C60F4B18}"/>
     <hyperlink ref="E10" r:id="rId9" display="https://menarini-ca.com/images/Fotos_Vademecum_nuevas/18Dental/02Oddent/B5-Enjuague-Composicion3D-Final.png" xr:uid="{001CEA98-E37C-49F3-9962-5D98955C01CC}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{7D284308-A0C1-4560-82D6-F69BBC6EBDE9}"/>
+    <hyperlink ref="E12" r:id="rId11" display="https://http2.mlstatic.com/D_NQ_NP_707377-MLM45742669951_042021-O.webp" xr:uid="{07C8829C-791C-4304-856B-1068022DF2DB}"/>
+    <hyperlink ref="E13" r:id="rId12" display="https://http2.mlstatic.com/D_NQ_NP_696629-MLM46898738296_072021-O.webp" xr:uid="{23140A0B-10B8-43C7-8578-9ADD8AABF556}"/>
+    <hyperlink ref="E14" r:id="rId13" display="https://http2.mlstatic.com/D_NQ_NP_828420-CBT45468688047_042021-O.webp" xr:uid="{6A43D19D-03D2-4130-9416-44DCC169D67E}"/>
+    <hyperlink ref="E16" r:id="rId14" display="https://www.dentalmex.mx/wp-content/uploads/2020/04/Lampara-de-fotocurado-LED-C-de-la-marca-DTE.-Deposito-Dental-Dentalmex.jpg" xr:uid="{FBD92A16-424D-478B-8AF7-E0BB650453D0}"/>
+    <hyperlink ref="E15" r:id="rId15" display="https://i.ebayimg.com/images/g/ZgkAAOxyw3NTliw0/s-l500.jpg" xr:uid="{8ECA79FA-48CD-471E-A061-800447E8AF8E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId16"/>
 </worksheet>
 </file>